--- a/Comprovantes/comprovantes_motoboy.xlsx
+++ b/Comprovantes/comprovantes_motoboy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,9 +421,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="39" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
@@ -458,187 +458,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mateus Esteves:</t>
+          <t>Você</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>13:48, 25/03/2025</t>
+          <t>Desconhecido</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 70,00</t>
+          <t>R$ 67,45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>JOSIE ADAUANE DIAS</t>
+          <t>SHIBATA COMERCIO E ATACADO DE PROD...</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Mateus Esteves:</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>13:49, 25/03/2025</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>R$ 70,00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JOSIE ADAUANE DIAS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Mateus Esteves:</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>14:17, 25/03/2025</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>R$ 24,00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Gabriel Willian da Costa Souza</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Mateus Esteves:</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>14:18, 25/03/2025</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>R$ 271,00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MARCELO IGNACIO MACHADO</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Mateus Esteves:</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>19:19, 25/03/2025</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>R$ 40,00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>JOSIE ADAUANE DIAS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Você</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Desconhecido</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R$ 100,00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>JOSIE ADAUANE DIAS</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Motoboy</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Mateus Esteves:</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>19:41, 25/03/2025</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>R$ 23,67</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SHIBATA COMERCIO E ATACADO DE PROD...</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
         <is>
           <t>Motoboy</t>
         </is>
